--- a/metrics/MAPE/average & upto/Neuropatía.xlsx
+++ b/metrics/MAPE/average & upto/Neuropatía.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4269212569177.879</v>
+        <v>4267638145684.045</v>
       </c>
       <c r="C3" t="n">
-        <v>3487654752943.471</v>
+        <v>3674245796296.103</v>
       </c>
       <c r="D3" t="n">
-        <v>4030810146110.271</v>
+        <v>3884873238601.162</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6351093382016.849</v>
+        <v>6645498521577.105</v>
       </c>
       <c r="C4" t="n">
-        <v>6524870557016.933</v>
+        <v>6584208877382.88</v>
       </c>
       <c r="D4" t="n">
-        <v>6570711638343.923</v>
+        <v>6572426320146.537</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>210421420287332.9</v>
+        <v>161973336719252.1</v>
       </c>
       <c r="C5" t="n">
-        <v>187952856294132</v>
+        <v>210534776107993.8</v>
       </c>
       <c r="D5" t="n">
-        <v>234765677598216.4</v>
+        <v>219952984850136.7</v>
       </c>
     </row>
   </sheetData>
